--- a/Results/checkm2 results.xlsx
+++ b/Results/checkm2 results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\GitHub\Comparative Genomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\GitHub\Comparative Genomics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A3E40F-DC3D-4104-AF4D-27B8F2A40D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B5A2D-9E70-4A35-9A6C-DE97732E9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9557273-CF38-4ECF-9F17-C3EED23AC97B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{C9557273-CF38-4ECF-9F17-C3EED23AC97B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B282C5D1-BA81-4BE0-B179-5F1A202C9CD7}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" activeCellId="1" sqref="A5:A49 A51:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Results/checkm2 results.xlsx
+++ b/Results/checkm2 results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\GitHub\Comparative Genomics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B5A2D-9E70-4A35-9A6C-DE97732E9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B8BE56-CCFF-41BC-B7B8-2261417F3D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{C9557273-CF38-4ECF-9F17-C3EED23AC97B}"/>
+    <workbookView minimized="1" xWindow="50505" yWindow="2565" windowWidth="10800" windowHeight="6000" activeTab="2" xr2:uid="{C9557273-CF38-4ECF-9F17-C3EED23AC97B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$O$46</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -439,6 +440,24 @@
   </si>
   <si>
     <t>MM_VK_Bin_83</t>
+  </si>
+  <si>
+    <t>species tree Concat alignment</t>
+  </si>
+  <si>
+    <t>metaerg output</t>
+  </si>
+  <si>
+    <t>Why did my genomes get kicked out?</t>
+  </si>
+  <si>
+    <t>if a genome misses too many of the orthologs then it gets kicked out?</t>
+  </si>
+  <si>
+    <t>&lt; 60% of the orthologs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min frequency will change this? </t>
   </si>
 </sst>
 </file>
@@ -495,7 +514,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1662,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B282C5D1-BA81-4BE0-B179-5F1A202C9CD7}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" activeCellId="1" sqref="A5:A49 A51:A52"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4115,4 +4145,416 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F6C1C-0E3A-4268-A43D-2E46B10DF891}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="78.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/checkm2 results.xlsx
+++ b/Results/checkm2 results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\GitHub\Comparative Genomics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B8BE56-CCFF-41BC-B7B8-2261417F3D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F645C2-1EE8-41F9-8C4E-E1A3458B558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="50505" yWindow="2565" windowWidth="10800" windowHeight="6000" activeTab="2" xr2:uid="{C9557273-CF38-4ECF-9F17-C3EED23AC97B}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9557273-CF38-4ECF-9F17-C3EED23AC97B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$O$46</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -837,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF993192-21CB-46A5-AAC2-98925AB8F7C7}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1692,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B282C5D1-BA81-4BE0-B179-5F1A202C9CD7}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A52" sqref="A2:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4148,10 +4149,593 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4854DD-CB91-4A3A-8441-3FA6AFF46535}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1">
+        <f>1-C1/100</f>
+        <v>8.340000000000003E-2</v>
+      </c>
+      <c r="C1">
+        <v>91.66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B47" si="0">1-C2/100</f>
+        <v>8.2799999999999985E-2</v>
+      </c>
+      <c r="C2">
+        <v>91.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999958E-2</v>
+      </c>
+      <c r="C3">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>7.1400000000000019E-2</v>
+      </c>
+      <c r="C4">
+        <v>92.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="C5">
+        <v>92.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5.1899999999999946E-2</v>
+      </c>
+      <c r="C6">
+        <v>94.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4.709999999999992E-2</v>
+      </c>
+      <c r="C7">
+        <v>95.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>4.1399999999999992E-2</v>
+      </c>
+      <c r="C8">
+        <v>95.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4.1100000000000025E-2</v>
+      </c>
+      <c r="C9">
+        <v>95.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>4.0400000000000102E-2</v>
+      </c>
+      <c r="C10">
+        <v>95.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3.6700000000000066E-2</v>
+      </c>
+      <c r="C11">
+        <v>96.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="C12">
+        <v>96.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999918E-2</v>
+      </c>
+      <c r="C13">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.2699999999999951E-2</v>
+      </c>
+      <c r="C14">
+        <v>96.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3.1899999999999928E-2</v>
+      </c>
+      <c r="C15">
+        <v>96.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999917E-2</v>
+      </c>
+      <c r="C16">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3.0900000000000039E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>96.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.9200000000000004E-2</v>
+      </c>
+      <c r="C18">
+        <v>97.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.7699999999999947E-2</v>
+      </c>
+      <c r="C19">
+        <v>97.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.3700000000000054E-2</v>
+      </c>
+      <c r="C20">
+        <v>97.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.3400000000000087E-2</v>
+      </c>
+      <c r="C21">
+        <v>97.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.3100000000000009E-2</v>
+      </c>
+      <c r="C22">
+        <v>97.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.2199999999999998E-2</v>
+      </c>
+      <c r="C23">
+        <v>97.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.1700000000000053E-2</v>
+      </c>
+      <c r="C24">
+        <v>97.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999992E-2</v>
+      </c>
+      <c r="C25">
+        <v>98.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000068E-2</v>
+      </c>
+      <c r="C26">
+        <v>98.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.1900000000000022E-2</v>
+      </c>
+      <c r="C27">
+        <v>98.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000309E-3</v>
+      </c>
+      <c r="C28">
+        <v>99.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000366E-3</v>
+      </c>
+      <c r="C29">
+        <v>99.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="C30">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="C31">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000899E-3</v>
+      </c>
+      <c r="C32">
+        <v>99.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000010001E-4</v>
+      </c>
+      <c r="C33">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.0000000000010001E-4</v>
+      </c>
+      <c r="C34">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>4.4200000000000017E-2</v>
+      </c>
+      <c r="C43">
+        <v>95.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2.5699999999999945E-2</v>
+      </c>
+      <c r="C44">
+        <v>97.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2.3900000000000032E-2</v>
+      </c>
+      <c r="C45">
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2.3799999999999932E-2</v>
+      </c>
+      <c r="C46">
+        <v>97.62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1.7399999999999971E-2</v>
+      </c>
+      <c r="C47">
+        <v>98.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F6C1C-0E3A-4268-A43D-2E46B10DF891}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/Results/checkm2 results.xlsx
+++ b/Results/checkm2 results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\GitHub\Comparative Genomics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F645C2-1EE8-41F9-8C4E-E1A3458B558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDC95F-2F15-4C5A-B17F-EA739FAF68FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9557273-CF38-4ECF-9F17-C3EED23AC97B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{C9557273-CF38-4ECF-9F17-C3EED23AC97B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,11 +506,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1693,14 +1695,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B282C5D1-BA81-4BE0-B179-5F1A202C9CD7}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A2:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -1728,7 +1731,7 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
@@ -1743,13 +1746,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2">
-        <v>66.510000000000005</v>
+        <v>70.790000000000006</v>
       </c>
       <c r="C2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1767,22 +1770,22 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>0.91700000000000004</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J2">
-        <v>50669</v>
+        <v>28942</v>
       </c>
       <c r="K2">
-        <v>342.897900763358</v>
-      </c>
-      <c r="L2">
-        <v>1174894</v>
+        <v>319.83658170914498</v>
+      </c>
+      <c r="L2" s="4">
+        <v>671118</v>
       </c>
       <c r="M2">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="N2">
-        <v>1048</v>
+        <v>667</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -1790,13 +1793,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2">
-        <v>70.790000000000006</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1814,22 +1817,22 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>0.95199999999999996</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J3">
-        <v>28942</v>
+        <v>50669</v>
       </c>
       <c r="K3">
-        <v>319.83658170914498</v>
-      </c>
-      <c r="L3">
-        <v>671118</v>
+        <v>342.897900763358</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1174894</v>
       </c>
       <c r="M3">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="N3">
-        <v>667</v>
+        <v>1048</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1869,7 +1872,7 @@
       <c r="K4">
         <v>311.131188118811</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>2043368</v>
       </c>
       <c r="M4">
@@ -1884,13 +1887,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B5">
-        <v>91.66</v>
+        <v>97.83</v>
       </c>
       <c r="C5">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1908,22 +1911,22 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>0.90700000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="J5">
-        <v>31779</v>
+        <v>63777</v>
       </c>
       <c r="K5">
-        <v>372.84613641513698</v>
-      </c>
-      <c r="L5">
-        <v>5437556</v>
+        <v>354.40361094933002</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2092503</v>
       </c>
       <c r="M5">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="N5">
-        <v>4413</v>
+        <v>1717</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
@@ -1931,13 +1934,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>91.72</v>
+        <v>98.81</v>
       </c>
       <c r="C6">
-        <v>0.73</v>
+        <v>0.04</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1955,22 +1958,22 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>0.89700000000000002</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="J6">
-        <v>31224</v>
+        <v>69388</v>
       </c>
       <c r="K6">
-        <v>343.034434782608</v>
-      </c>
-      <c r="L6">
-        <v>3290839</v>
+        <v>355.58540454785799</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2356970</v>
       </c>
       <c r="M6">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="N6">
-        <v>2875</v>
+        <v>1891</v>
       </c>
       <c r="O6" t="s">
         <v>17</v>
@@ -1978,13 +1981,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B7">
-        <v>92.2</v>
+        <v>92.94</v>
       </c>
       <c r="C7">
-        <v>6.73</v>
+        <v>1.94</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -2002,22 +2005,22 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>0.90500000000000003</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="J7">
-        <v>14679</v>
+        <v>9051</v>
       </c>
       <c r="K7">
-        <v>316.23648869963898</v>
-      </c>
-      <c r="L7">
-        <v>3193110</v>
+        <v>312.36214442013102</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2899773</v>
       </c>
       <c r="M7">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="N7">
-        <v>3053</v>
+        <v>2742</v>
       </c>
       <c r="O7" t="s">
         <v>17</v>
@@ -2025,13 +2028,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B8">
-        <v>92.86</v>
+        <v>96.81</v>
       </c>
       <c r="C8">
-        <v>0.67</v>
+        <v>1.99</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -2049,22 +2052,22 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>0.89300000000000002</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="J8">
-        <v>19216</v>
+        <v>70800</v>
       </c>
       <c r="K8">
-        <v>346.986418193303</v>
-      </c>
-      <c r="L8">
-        <v>3683924</v>
+        <v>339.02679830747502</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3115674</v>
       </c>
       <c r="M8">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="N8">
-        <v>3166</v>
+        <v>2836</v>
       </c>
       <c r="O8" t="s">
         <v>17</v>
@@ -2072,13 +2075,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B9">
-        <v>92.94</v>
+        <v>92.2</v>
       </c>
       <c r="C9">
-        <v>1.94</v>
+        <v>6.73</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -2096,22 +2099,22 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>0.88400000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="J9">
-        <v>9051</v>
+        <v>14679</v>
       </c>
       <c r="K9">
-        <v>312.36214442013102</v>
-      </c>
-      <c r="L9">
-        <v>2899773</v>
+        <v>316.23648869963898</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3193110</v>
       </c>
       <c r="M9">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N9">
-        <v>2742</v>
+        <v>3053</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
@@ -2119,13 +2122,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B10">
-        <v>94.81</v>
+        <v>91.72</v>
       </c>
       <c r="C10">
-        <v>1.21</v>
+        <v>0.73</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -2143,22 +2146,22 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>0.92200000000000004</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="J10">
-        <v>12977</v>
+        <v>31224</v>
       </c>
       <c r="K10">
-        <v>341.04905535299901</v>
-      </c>
-      <c r="L10">
-        <v>3344811</v>
+        <v>343.034434782608</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3290839</v>
       </c>
       <c r="M10">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="N10">
-        <v>3017</v>
+        <v>2875</v>
       </c>
       <c r="O10" t="s">
         <v>17</v>
@@ -2166,22 +2169,22 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B11">
-        <v>95.29</v>
+        <v>94.81</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>1.21</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -2190,22 +2193,22 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>0.89800000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="J11">
-        <v>39753</v>
+        <v>12977</v>
       </c>
       <c r="K11">
-        <v>358.489599503259</v>
-      </c>
-      <c r="L11">
-        <v>3851953</v>
+        <v>341.04905535299901</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3344811</v>
       </c>
       <c r="M11">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="N11">
-        <v>3221</v>
+        <v>3017</v>
       </c>
       <c r="O11" t="s">
         <v>17</v>
@@ -2213,13 +2216,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>95.86</v>
+        <v>97.23</v>
       </c>
       <c r="C12">
-        <v>0.56000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -2237,22 +2240,22 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>0.92400000000000004</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="J12">
-        <v>25684</v>
+        <v>40224</v>
       </c>
       <c r="K12">
-        <v>360.93622291021597</v>
-      </c>
-      <c r="L12">
-        <v>3780382</v>
+        <v>312.94123105474699</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3367457</v>
       </c>
       <c r="M12">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="N12">
-        <v>3230</v>
+        <v>3233</v>
       </c>
       <c r="O12" t="s">
         <v>17</v>
@@ -2260,13 +2263,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B13">
-        <v>95.89</v>
+        <v>96.73</v>
       </c>
       <c r="C13">
-        <v>1.49</v>
+        <v>0.71</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -2284,22 +2287,22 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>0.89300000000000002</v>
+        <v>0.877</v>
       </c>
       <c r="J13">
-        <v>490487</v>
+        <v>40989</v>
       </c>
       <c r="K13">
-        <v>380.79455698792702</v>
-      </c>
-      <c r="L13">
-        <v>6243759</v>
+        <v>322.46994182288302</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3405831</v>
       </c>
       <c r="M13">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N13">
-        <v>4887</v>
+        <v>3094</v>
       </c>
       <c r="O13" t="s">
         <v>17</v>
@@ -2307,13 +2310,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B14">
-        <v>95.96</v>
+        <v>97.62</v>
       </c>
       <c r="C14">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2331,22 +2334,22 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>0.90200000000000002</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="J14">
-        <v>26572</v>
+        <v>98539</v>
       </c>
       <c r="K14">
-        <v>365.01880984952101</v>
-      </c>
-      <c r="L14">
-        <v>3544473</v>
+        <v>339.12791430371698</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3536047</v>
       </c>
       <c r="M14">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="N14">
-        <v>2924</v>
+        <v>3174</v>
       </c>
       <c r="O14" t="s">
         <v>17</v>
@@ -2354,13 +2357,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B15">
-        <v>96.33</v>
+        <v>95.96</v>
       </c>
       <c r="C15">
-        <v>1.07</v>
+        <v>0.03</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2378,22 +2381,22 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>0.90900000000000003</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="J15">
-        <v>144718</v>
+        <v>26572</v>
       </c>
       <c r="K15">
-        <v>361.26544187519698</v>
-      </c>
-      <c r="L15">
-        <v>3760465</v>
+        <v>365.01880984952101</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3544473</v>
       </c>
       <c r="M15">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="N15">
-        <v>3157</v>
+        <v>2924</v>
       </c>
       <c r="O15" t="s">
         <v>17</v>
@@ -2401,22 +2404,22 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B16">
-        <v>96.47</v>
+        <v>99.8</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -2425,22 +2428,22 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>0.88700000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="J16">
-        <v>45531</v>
+        <v>367257</v>
       </c>
       <c r="K16">
-        <v>332.38160973327001</v>
-      </c>
-      <c r="L16">
-        <v>4796265</v>
+        <v>347.56879248947803</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3569655</v>
       </c>
       <c r="M16">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N16">
-        <v>4274</v>
+        <v>3089</v>
       </c>
       <c r="O16" t="s">
         <v>17</v>
@@ -2448,13 +2451,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B17">
-        <v>96.7</v>
+        <v>97.43</v>
       </c>
       <c r="C17">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2472,22 +2475,22 @@
         <v>11</v>
       </c>
       <c r="I17">
-        <v>0.93500000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="J17">
-        <v>46206</v>
+        <v>41207</v>
       </c>
       <c r="K17">
-        <v>387.90112721417</v>
-      </c>
-      <c r="L17">
-        <v>3858542</v>
+        <v>349.03805564438699</v>
+      </c>
+      <c r="L17" s="4">
+        <v>3671178</v>
       </c>
       <c r="M17">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="N17">
-        <v>3105</v>
+        <v>3127</v>
       </c>
       <c r="O17" t="s">
         <v>17</v>
@@ -2495,13 +2498,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B18">
-        <v>96.73</v>
+        <v>92.86</v>
       </c>
       <c r="C18">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2519,22 +2522,22 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>0.877</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="J18">
-        <v>40989</v>
+        <v>19216</v>
       </c>
       <c r="K18">
-        <v>322.46994182288302</v>
-      </c>
-      <c r="L18">
-        <v>3405831</v>
+        <v>346.986418193303</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3683924</v>
       </c>
       <c r="M18">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="N18">
-        <v>3094</v>
+        <v>3166</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
@@ -2542,22 +2545,22 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B19">
-        <v>96.81</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>1.99</v>
+        <v>0.02</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -2566,22 +2569,22 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>0.92400000000000004</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="J19">
-        <v>70800</v>
+        <v>3750771</v>
       </c>
       <c r="K19">
-        <v>339.02679830747502</v>
-      </c>
-      <c r="L19">
-        <v>3115674</v>
+        <v>358.930387794024</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3750771</v>
       </c>
       <c r="M19">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="N19">
-        <v>2836</v>
+        <v>3146</v>
       </c>
       <c r="O19" t="s">
         <v>17</v>
@@ -2589,13 +2592,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B20">
-        <v>96.9</v>
+        <v>96.33</v>
       </c>
       <c r="C20">
-        <v>0.27</v>
+        <v>1.07</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -2613,83 +2616,83 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>0.91100000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="J20">
-        <v>1056999</v>
+        <v>144718</v>
       </c>
       <c r="K20">
-        <v>367.68721461187198</v>
-      </c>
-      <c r="L20">
-        <v>4768689</v>
+        <v>361.26544187519698</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3760465</v>
       </c>
       <c r="M20">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="N20">
-        <v>3942</v>
+        <v>3157</v>
       </c>
       <c r="O20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="3">
-        <v>96.91</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3.31</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>95.86</v>
+      </c>
+      <c r="C21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3">
-        <v>11</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="J21" s="3">
-        <v>6014587</v>
-      </c>
-      <c r="K21" s="3">
-        <v>323.31190125276299</v>
-      </c>
-      <c r="L21" s="3">
-        <v>6014587</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="N21" s="3">
-        <v>5428</v>
-      </c>
-      <c r="O21" s="3" t="s">
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J21">
+        <v>25684</v>
+      </c>
+      <c r="K21">
+        <v>360.93622291021597</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3780382</v>
+      </c>
+      <c r="M21">
+        <v>0.7</v>
+      </c>
+      <c r="N21">
+        <v>3230</v>
+      </c>
+      <c r="O21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B22">
-        <v>97.08</v>
+        <v>97.61</v>
       </c>
       <c r="C22">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -2707,22 +2710,22 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>0.88700000000000001</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="J22">
-        <v>36268</v>
+        <v>154552</v>
       </c>
       <c r="K22">
-        <v>354.38158656629901</v>
-      </c>
-      <c r="L22">
-        <v>4132090</v>
+        <v>388.26647192469898</v>
+      </c>
+      <c r="L22" s="4">
+        <v>3848180</v>
       </c>
       <c r="M22">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N22">
-        <v>3454</v>
+        <v>3081</v>
       </c>
       <c r="O22" t="s">
         <v>17</v>
@@ -2730,22 +2733,22 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>97.23</v>
+        <v>95.29</v>
       </c>
       <c r="C23">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
@@ -2754,22 +2757,22 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.89900000000000002</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="J23">
-        <v>40224</v>
+        <v>39753</v>
       </c>
       <c r="K23">
-        <v>312.94123105474699</v>
-      </c>
-      <c r="L23">
-        <v>3367457</v>
+        <v>358.489599503259</v>
+      </c>
+      <c r="L23" s="4">
+        <v>3851953</v>
       </c>
       <c r="M23">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="N23">
-        <v>3233</v>
+        <v>3221</v>
       </c>
       <c r="O23" t="s">
         <v>17</v>
@@ -2777,13 +2780,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B24">
-        <v>97.63</v>
+        <v>96.7</v>
       </c>
       <c r="C24">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -2801,22 +2804,22 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.91200000000000003</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="J24">
-        <v>175957</v>
+        <v>46206</v>
       </c>
       <c r="K24">
-        <v>342.992085152838</v>
-      </c>
-      <c r="L24">
-        <v>4128508</v>
+        <v>387.90112721417</v>
+      </c>
+      <c r="L24" s="4">
+        <v>3858542</v>
       </c>
       <c r="M24">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N24">
-        <v>3664</v>
+        <v>3105</v>
       </c>
       <c r="O24" t="s">
         <v>17</v>
@@ -2824,13 +2827,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25">
-        <v>97.66</v>
+        <v>97.63</v>
       </c>
       <c r="C25">
-        <v>1.03</v>
+        <v>0.17</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2848,22 +2851,22 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>0.90800000000000003</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="J25">
-        <v>116061</v>
+        <v>175957</v>
       </c>
       <c r="K25">
-        <v>396.73611836379399</v>
-      </c>
-      <c r="L25">
-        <v>7518465</v>
+        <v>342.992085152838</v>
+      </c>
+      <c r="L25" s="4">
+        <v>4128508</v>
       </c>
       <c r="M25">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="N25">
-        <v>5745</v>
+        <v>3664</v>
       </c>
       <c r="O25" t="s">
         <v>17</v>
@@ -2871,13 +2874,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B26">
-        <v>97.69</v>
+        <v>97.08</v>
       </c>
       <c r="C26">
-        <v>0.66</v>
+        <v>1.3</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2895,22 +2898,22 @@
         <v>11</v>
       </c>
       <c r="I26">
-        <v>0.90800000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="J26">
-        <v>4815747</v>
+        <v>36268</v>
       </c>
       <c r="K26">
-        <v>339.99767225325797</v>
-      </c>
-      <c r="L26">
-        <v>4815747</v>
+        <v>354.38158656629901</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4132090</v>
       </c>
       <c r="M26">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="N26">
-        <v>4296</v>
+        <v>3454</v>
       </c>
       <c r="O26" t="s">
         <v>17</v>
@@ -2918,22 +2921,22 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27">
-        <v>97.78</v>
+        <v>99.99</v>
       </c>
       <c r="C27">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -2942,22 +2945,22 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>0.88500000000000001</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="J27">
-        <v>312647</v>
+        <v>2445945</v>
       </c>
       <c r="K27">
-        <v>340.37218813905901</v>
-      </c>
-      <c r="L27">
-        <v>4506184</v>
+        <v>365.576305220883</v>
+      </c>
+      <c r="L27" s="4">
+        <v>4146955</v>
       </c>
       <c r="M27">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="N27">
-        <v>3912</v>
+        <v>3486</v>
       </c>
       <c r="O27" t="s">
         <v>17</v>
@@ -2965,22 +2968,22 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B28">
-        <v>97.83</v>
+        <v>100</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -2989,22 +2992,22 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>0.872</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="J28">
-        <v>63777</v>
+        <v>4150883</v>
       </c>
       <c r="K28">
-        <v>354.40361094933002</v>
-      </c>
-      <c r="L28">
-        <v>2092503</v>
+        <v>349.32759107596701</v>
+      </c>
+      <c r="L28" s="4">
+        <v>4150883</v>
       </c>
       <c r="M28">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="N28">
-        <v>1717</v>
+        <v>3541</v>
       </c>
       <c r="O28" t="s">
         <v>17</v>
@@ -3012,22 +3015,22 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29">
-        <v>98.38</v>
+        <v>99.8</v>
       </c>
       <c r="C29">
-        <v>0.05</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
@@ -3036,22 +3039,22 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>0.89400000000000002</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="J29">
-        <v>28673</v>
+        <v>4175033</v>
       </c>
       <c r="K29">
-        <v>369.32202199859501</v>
-      </c>
-      <c r="L29">
-        <v>5287250</v>
+        <v>409.84446627373899</v>
+      </c>
+      <c r="L29" s="4">
+        <v>4175033</v>
       </c>
       <c r="M29">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="N29">
-        <v>4273</v>
+        <v>3054</v>
       </c>
       <c r="O29" t="s">
         <v>17</v>
@@ -3059,22 +3062,22 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B30">
-        <v>98.55</v>
+        <v>99.99</v>
       </c>
       <c r="C30">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -3083,22 +3086,22 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>0.90200000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="J30">
-        <v>26880</v>
+        <v>4199284</v>
       </c>
       <c r="K30">
-        <v>369.90088164573802</v>
-      </c>
-      <c r="L30">
-        <v>4597575</v>
+        <v>359.707330880271</v>
+      </c>
+      <c r="L30" s="4">
+        <v>4199284</v>
       </c>
       <c r="M30">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="N30">
-        <v>3743</v>
+        <v>3533</v>
       </c>
       <c r="O30" t="s">
         <v>17</v>
@@ -3106,13 +3109,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B31">
-        <v>98.81</v>
+        <v>95.58</v>
       </c>
       <c r="C31">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -3130,22 +3133,22 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>0.85499999999999998</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="J31">
-        <v>69388</v>
+        <v>21516</v>
       </c>
       <c r="K31">
-        <v>355.58540454785799</v>
-      </c>
-      <c r="L31">
-        <v>2356970</v>
+        <v>358.20320855614898</v>
+      </c>
+      <c r="L31" s="4">
+        <v>4239740</v>
       </c>
       <c r="M31">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N31">
-        <v>1891</v>
+        <v>3553</v>
       </c>
       <c r="O31" t="s">
         <v>17</v>
@@ -3185,7 +3188,7 @@
       <c r="K32">
         <v>341.17801455301401</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="4">
         <v>4280473</v>
       </c>
       <c r="M32">
@@ -3200,22 +3203,22 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33">
-        <v>99.63</v>
+        <v>130</v>
+      </c>
+      <c r="B33" s="2">
+        <v>89.5</v>
       </c>
       <c r="C33">
-        <v>1.72</v>
+        <v>3.28</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -3227,19 +3230,19 @@
         <v>0.879</v>
       </c>
       <c r="J33">
-        <v>61797</v>
+        <v>8282</v>
       </c>
       <c r="K33">
-        <v>325.67403639209499</v>
-      </c>
-      <c r="L33">
-        <v>5671497</v>
+        <v>327.65983813859299</v>
+      </c>
+      <c r="L33" s="4">
+        <v>4414379</v>
       </c>
       <c r="M33">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="N33">
-        <v>5111</v>
+        <v>3954</v>
       </c>
       <c r="O33" t="s">
         <v>17</v>
@@ -3247,22 +3250,22 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B34">
-        <v>99.8</v>
+        <v>97.78</v>
       </c>
       <c r="C34">
-        <v>1.1399999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -3271,22 +3274,22 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>0.89800000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="J34">
-        <v>4175033</v>
+        <v>312647</v>
       </c>
       <c r="K34">
-        <v>409.84446627373899</v>
-      </c>
-      <c r="L34">
-        <v>4175033</v>
+        <v>340.37218813905901</v>
+      </c>
+      <c r="L34" s="4">
+        <v>4506184</v>
       </c>
       <c r="M34">
         <v>0.6</v>
       </c>
       <c r="N34">
-        <v>3054</v>
+        <v>3912</v>
       </c>
       <c r="O34" t="s">
         <v>17</v>
@@ -3294,22 +3297,22 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B35">
-        <v>99.8</v>
+        <v>98.55</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
@@ -3318,22 +3321,22 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>0.90100000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="J35">
-        <v>367257</v>
+        <v>26880</v>
       </c>
       <c r="K35">
-        <v>347.56879248947803</v>
-      </c>
-      <c r="L35">
-        <v>3569655</v>
+        <v>369.90088164573802</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4597575</v>
       </c>
       <c r="M35">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="N35">
-        <v>3089</v>
+        <v>3743</v>
       </c>
       <c r="O35" t="s">
         <v>17</v>
@@ -3341,22 +3344,22 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B36">
-        <v>99.88</v>
+        <v>100</v>
       </c>
       <c r="C36">
-        <v>0.37</v>
+        <v>1.51</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
@@ -3365,22 +3368,22 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>0.91400000000000003</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="J36">
-        <v>861539</v>
+        <v>3295555</v>
       </c>
       <c r="K36">
-        <v>368.53178368121399</v>
-      </c>
-      <c r="L36">
-        <v>5094286</v>
+        <v>366.13292276109797</v>
+      </c>
+      <c r="L36" s="4">
+        <v>4713391</v>
       </c>
       <c r="M36">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="N36">
-        <v>4216</v>
+        <v>3897</v>
       </c>
       <c r="O36" t="s">
         <v>17</v>
@@ -3388,13 +3391,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B37">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -3412,22 +3415,22 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>0.90700000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="J37">
-        <v>4199284</v>
+        <v>4730447</v>
       </c>
       <c r="K37">
-        <v>359.707330880271</v>
-      </c>
-      <c r="L37">
-        <v>4199284</v>
+        <v>375.69257294429701</v>
+      </c>
+      <c r="L37" s="4">
+        <v>4730447</v>
       </c>
       <c r="M37">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="N37">
-        <v>3533</v>
+        <v>3770</v>
       </c>
       <c r="O37" t="s">
         <v>17</v>
@@ -3435,22 +3438,22 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38">
-        <v>99.99</v>
+        <v>96.9</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
@@ -3459,22 +3462,22 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>0.92100000000000004</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="J38">
-        <v>2445945</v>
+        <v>1056999</v>
       </c>
       <c r="K38">
-        <v>365.576305220883</v>
-      </c>
-      <c r="L38">
-        <v>4146955</v>
+        <v>367.68721461187198</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4768689</v>
       </c>
       <c r="M38">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="N38">
-        <v>3486</v>
+        <v>3942</v>
       </c>
       <c r="O38" t="s">
         <v>17</v>
@@ -3482,22 +3485,22 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>96.47</v>
       </c>
       <c r="C39">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
@@ -3506,22 +3509,22 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>0.876</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="J39">
-        <v>3986899</v>
+        <v>45531</v>
       </c>
       <c r="K39">
-        <v>350.99778215869799</v>
-      </c>
-      <c r="L39">
-        <v>4871565</v>
+        <v>332.38160973327001</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4796265</v>
       </c>
       <c r="M39">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="N39">
-        <v>4058</v>
+        <v>4274</v>
       </c>
       <c r="O39" t="s">
         <v>17</v>
@@ -3529,22 +3532,22 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>97.69</v>
       </c>
       <c r="C40">
-        <v>1.51</v>
+        <v>0.66</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -3553,22 +3556,22 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>0.90700000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="J40">
-        <v>3295555</v>
+        <v>4815747</v>
       </c>
       <c r="K40">
-        <v>366.13292276109797</v>
-      </c>
-      <c r="L40">
-        <v>4713391</v>
+        <v>339.99767225325797</v>
+      </c>
+      <c r="L40" s="4">
+        <v>4815747</v>
       </c>
       <c r="M40">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="N40">
-        <v>3897</v>
+        <v>4296</v>
       </c>
       <c r="O40" t="s">
         <v>17</v>
@@ -3576,13 +3579,13 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B41">
         <v>100</v>
       </c>
       <c r="C41">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -3600,22 +3603,22 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>0.88600000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="J41">
-        <v>5957605</v>
+        <v>3986899</v>
       </c>
       <c r="K41">
-        <v>377.13313356164298</v>
-      </c>
-      <c r="L41">
-        <v>5957605</v>
+        <v>350.99778215869799</v>
+      </c>
+      <c r="L41" s="4">
+        <v>4871565</v>
       </c>
       <c r="M41">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="N41">
-        <v>4672</v>
+        <v>4058</v>
       </c>
       <c r="O41" t="s">
         <v>17</v>
@@ -3623,22 +3626,22 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>99.88</v>
       </c>
       <c r="C42">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
@@ -3647,22 +3650,22 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>0.90200000000000002</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="J42">
-        <v>3750771</v>
+        <v>861539</v>
       </c>
       <c r="K42">
-        <v>358.930387794024</v>
-      </c>
-      <c r="L42">
-        <v>3750771</v>
+        <v>368.53178368121399</v>
+      </c>
+      <c r="L42" s="4">
+        <v>5094286</v>
       </c>
       <c r="M42">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="N42">
-        <v>3146</v>
+        <v>4216</v>
       </c>
       <c r="O42" t="s">
         <v>17</v>
@@ -3670,22 +3673,22 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>98.26</v>
       </c>
       <c r="C43">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -3697,19 +3700,19 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="J43">
-        <v>4730447</v>
+        <v>57820</v>
       </c>
       <c r="K43">
-        <v>375.69257294429701</v>
-      </c>
-      <c r="L43">
-        <v>4730447</v>
+        <v>383.23599111330498</v>
+      </c>
+      <c r="L43" s="4">
+        <v>5185609</v>
       </c>
       <c r="M43">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="N43">
-        <v>3770</v>
+        <v>4051</v>
       </c>
       <c r="O43" t="s">
         <v>17</v>
@@ -3717,22 +3720,22 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>98.38</v>
       </c>
       <c r="C44">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
@@ -3741,22 +3744,22 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>0.88600000000000001</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="J44">
-        <v>659070</v>
+        <v>28673</v>
       </c>
       <c r="K44">
-        <v>387.37712058688601</v>
-      </c>
-      <c r="L44">
-        <v>5714369</v>
+        <v>369.32202199859501</v>
+      </c>
+      <c r="L44" s="4">
+        <v>5287250</v>
       </c>
       <c r="M44">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="N44">
-        <v>4362</v>
+        <v>4273</v>
       </c>
       <c r="O44" t="s">
         <v>17</v>
@@ -3764,22 +3767,22 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B45">
         <v>100</v>
       </c>
       <c r="C45">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
@@ -3788,22 +3791,22 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>0.89300000000000002</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="J45">
-        <v>4150883</v>
+        <v>41928</v>
       </c>
       <c r="K45">
-        <v>349.32759107596701</v>
-      </c>
-      <c r="L45">
-        <v>4150883</v>
+        <v>384.46347363328402</v>
+      </c>
+      <c r="L45" s="4">
+        <v>5301669</v>
       </c>
       <c r="M45">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="N45">
-        <v>3541</v>
+        <v>4134</v>
       </c>
       <c r="O45" t="s">
         <v>17</v>
@@ -3811,13 +3814,13 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>91.66</v>
       </c>
       <c r="C46">
-        <v>0.28999999999999998</v>
+        <v>1.84</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3835,22 +3838,22 @@
         <v>11</v>
       </c>
       <c r="I46">
-        <v>0.89800000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="J46">
-        <v>41928</v>
+        <v>31779</v>
       </c>
       <c r="K46">
-        <v>384.46347363328402</v>
-      </c>
-      <c r="L46">
-        <v>5301669</v>
+        <v>372.84613641513698</v>
+      </c>
+      <c r="L46" s="4">
+        <v>5437556</v>
       </c>
       <c r="M46">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="N46">
-        <v>4134</v>
+        <v>4413</v>
       </c>
       <c r="O46" t="s">
         <v>17</v>
@@ -3858,22 +3861,22 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B47">
-        <v>95.58</v>
+        <v>99.63</v>
       </c>
       <c r="C47">
-        <v>0.34</v>
+        <v>1.72</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
         <v>16</v>
@@ -3882,22 +3885,22 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>0.89900000000000002</v>
+        <v>0.879</v>
       </c>
       <c r="J47">
-        <v>21516</v>
+        <v>61797</v>
       </c>
       <c r="K47">
-        <v>358.20320855614898</v>
-      </c>
-      <c r="L47">
-        <v>4239740</v>
+        <v>325.67403639209499</v>
+      </c>
+      <c r="L47" s="4">
+        <v>5671497</v>
       </c>
       <c r="M47">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="N47">
-        <v>3553</v>
+        <v>5111</v>
       </c>
       <c r="O47" t="s">
         <v>17</v>
@@ -3905,22 +3908,22 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B48">
-        <v>97.43</v>
+        <v>100</v>
       </c>
       <c r="C48">
-        <v>0.38</v>
+        <v>0.01</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
         <v>16</v>
@@ -3929,22 +3932,22 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>0.89</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="J48">
-        <v>41207</v>
+        <v>659070</v>
       </c>
       <c r="K48">
-        <v>349.03805564438699</v>
-      </c>
-      <c r="L48">
-        <v>3671178</v>
+        <v>387.37712058688601</v>
+      </c>
+      <c r="L48" s="4">
+        <v>5714369</v>
       </c>
       <c r="M48">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="N48">
-        <v>3127</v>
+        <v>4362</v>
       </c>
       <c r="O48" t="s">
         <v>17</v>
@@ -3952,107 +3955,107 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B49">
-        <v>97.61</v>
+        <v>100</v>
       </c>
       <c r="C49">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="J49">
+        <v>5957605</v>
+      </c>
+      <c r="K49">
+        <v>377.13313356164298</v>
+      </c>
+      <c r="L49" s="4">
+        <v>5957605</v>
+      </c>
+      <c r="M49">
+        <v>0.65</v>
+      </c>
+      <c r="N49">
+        <v>4672</v>
+      </c>
+      <c r="O49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="3">
+        <v>96.91</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49">
-        <v>11</v>
-      </c>
-      <c r="I49">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="J49">
-        <v>154552</v>
-      </c>
-      <c r="K49">
-        <v>388.26647192469898</v>
-      </c>
-      <c r="L49">
-        <v>3848180</v>
-      </c>
-      <c r="M49">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N49">
-        <v>3081</v>
-      </c>
-      <c r="O49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="2">
-        <v>89.5</v>
-      </c>
-      <c r="C50">
-        <v>3.28</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50">
-        <v>11</v>
-      </c>
-      <c r="I50">
-        <v>0.879</v>
-      </c>
-      <c r="J50">
-        <v>8282</v>
-      </c>
-      <c r="K50">
-        <v>327.65983813859299</v>
-      </c>
-      <c r="L50">
-        <v>4414379</v>
-      </c>
-      <c r="M50">
-        <v>0.6</v>
-      </c>
-      <c r="N50">
-        <v>3954</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="G50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="3">
+        <v>11</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="J50" s="3">
+        <v>6014587</v>
+      </c>
+      <c r="K50" s="3">
+        <v>323.31190125276299</v>
+      </c>
+      <c r="L50" s="5">
+        <v>6014587</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="N50" s="3">
+        <v>5428</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B51">
-        <v>97.62</v>
+        <v>95.89</v>
       </c>
       <c r="C51">
-        <v>0.04</v>
+        <v>1.49</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -4070,22 +4073,22 @@
         <v>11</v>
       </c>
       <c r="I51">
-        <v>0.91100000000000003</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="J51">
-        <v>98539</v>
+        <v>490487</v>
       </c>
       <c r="K51">
-        <v>339.12791430371698</v>
-      </c>
-      <c r="L51">
-        <v>3536047</v>
+        <v>380.79455698792702</v>
+      </c>
+      <c r="L51" s="4">
+        <v>6243759</v>
       </c>
       <c r="M51">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N51">
-        <v>3174</v>
+        <v>4887</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
@@ -4093,13 +4096,13 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B52">
-        <v>98.26</v>
+        <v>97.66</v>
       </c>
       <c r="C52">
-        <v>0.32</v>
+        <v>1.03</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -4117,22 +4120,22 @@
         <v>11</v>
       </c>
       <c r="I52">
-        <v>0.89700000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="J52">
-        <v>57820</v>
+        <v>116061</v>
       </c>
       <c r="K52">
-        <v>383.23599111330498</v>
-      </c>
-      <c r="L52">
-        <v>5185609</v>
+        <v>396.73611836379399</v>
+      </c>
+      <c r="L52" s="4">
+        <v>7518465</v>
       </c>
       <c r="M52">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="N52">
-        <v>4051</v>
+        <v>5745</v>
       </c>
       <c r="O52" t="s">
         <v>17</v>
@@ -4140,8 +4143,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O46" xr:uid="{B282C5D1-BA81-4BE0-B179-5F1A202C9CD7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
-      <sortCondition ref="B1:B46"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O52">
+      <sortCondition ref="L1:L46"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4152,7 +4155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4854DD-CB91-4A3A-8441-3FA6AFF46535}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
